--- a/09-22-24 to 09-28-24 Milwaukee Schedule.xlsx
+++ b/09-22-24 to 09-28-24 Milwaukee Schedule.xlsx
@@ -3036,7 +3036,7 @@
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="K52" t="inlineStr"/>

--- a/09-22-24 to 09-28-24 Milwaukee Schedule.xlsx
+++ b/09-22-24 to 09-28-24 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y85"/>
+  <dimension ref="A1:Y86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1131,7 +1131,12 @@
           <t>Carlie</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Driver,
+White Camry, Trainer</t>
+        </is>
+      </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
@@ -1155,7 +1160,11 @@
           <t>Carlie</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr"/>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1169,7 +1178,8 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="T16" t="inlineStr"/>
@@ -1475,10 +1485,15 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr"/>
+          <t>Lexi</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>4th Day,
+work w/ Carlie</t>
+        </is>
+      </c>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
     </row>
@@ -1527,10 +1542,15 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr"/>
+          <t>Lexi</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>2nd Day,
+work w/ Carlie</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
@@ -1551,7 +1571,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Robyn</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="W21" t="inlineStr"/>
@@ -1570,10 +1590,15 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr"/>
+          <t>Lexi</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1st Day,
+work w/ Carlie</t>
+        </is>
+      </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
@@ -1598,7 +1623,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
@@ -1610,10 +1635,15 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr"/>
+          <t>Lexi</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>3rd Day,
+work w/ Carlie</t>
+        </is>
+      </c>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
@@ -1622,7 +1652,7 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Robyn</t>
         </is>
       </c>
       <c r="W22" t="inlineStr"/>
@@ -1641,7 +1671,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Robyn</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -1650,8 +1680,16 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Stephanie</t>
+        </is>
+      </c>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
@@ -1661,7 +1699,7 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Robyn</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S23" t="inlineStr"/>
@@ -1673,14 +1711,10 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Stephanie</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>Until 10:00</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
     </row>
@@ -1696,7 +1730,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Robyn</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1716,7 +1750,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Robyn</t>
         </is>
       </c>
       <c r="S24" t="inlineStr"/>
@@ -1728,13 +1762,13 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Aivy</t>
+          <t>Stephanie</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>@ Store,
-work w/ Carlie</t>
+          <t>Until 10:00,
+Trainer</t>
         </is>
       </c>
       <c r="X24" t="inlineStr"/>
@@ -1752,7 +1786,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1766,15 +1800,19 @@
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>5:30 AM START</t>
-        </is>
-      </c>
+      <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
@@ -1784,12 +1822,13 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+work w/ Stephanie</t>
         </is>
       </c>
       <c r="X25" t="inlineStr"/>
@@ -1800,8 +1839,16 @@
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Stephanie</t>
+        </is>
+      </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
@@ -1815,7 +1862,7 @@
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>5:30 AM START</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
@@ -1831,7 +1878,7 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
@@ -1862,22 +1909,30 @@
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>ROTE OIL #10 MUKWONAGO - ROCHESTER</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>5:00 AM OFFICE MEET</t>
-        </is>
-      </c>
+      <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
     </row>
@@ -1886,16 +1941,8 @@
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>5:00 AM OFFICE MEET</t>
-        </is>
-      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
@@ -1909,7 +1956,7 @@
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
-          <t>1060 N ROCHESTER ST</t>
+          <t>ROTE OIL #10 MUKWONAGO - ROCHESTER</t>
         </is>
       </c>
       <c r="O28" t="inlineStr"/>
@@ -1917,7 +1964,7 @@
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:00 AM OFFICE MEET</t>
         </is>
       </c>
       <c r="S28" t="inlineStr"/>
@@ -1940,7 +1987,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t xml:space="preserve">6:00 AM START </t>
+          <t>5:00 AM OFFICE MEET</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -1956,7 +2003,7 @@
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/dmvR5bTHLs1Cbjcr5</t>
+          <t>1060 N ROCHESTER ST</t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
@@ -1964,17 +2011,13 @@
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>5:00 AM OFFICE MEET</t>
-        </is>
-      </c>
+      <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
@@ -1984,10 +2027,14 @@
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
+          <t xml:space="preserve">6:00 AM START </t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -2003,7 +2050,7 @@
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>https://goo.gl/maps/dmvR5bTHLs1Cbjcr5</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
@@ -2011,7 +2058,7 @@
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
         <is>
-          <t>ROTE OIL #1 PADDOCK LAKE- BRASS BALL</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S30" t="inlineStr"/>
@@ -2019,7 +2066,7 @@
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:00 AM OFFICE MEET</t>
         </is>
       </c>
       <c r="W30" t="inlineStr"/>
@@ -2034,7 +2081,7 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>ROTE OIL #03 TWIN LAKES</t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -2050,7 +2097,7 @@
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
@@ -2058,7 +2105,7 @@
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
-          <t>25406 75TH ST</t>
+          <t>ROTE OIL #1 PADDOCK LAKE- BRASS BALL</t>
         </is>
       </c>
       <c r="S31" t="inlineStr"/>
@@ -2066,7 +2113,7 @@
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W31" t="inlineStr"/>
@@ -2081,7 +2128,7 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>475 N LAKE AVE</t>
+          <t>ROTE OIL #03 TWIN LAKES</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -2097,7 +2144,7 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>ROTE OIL #12 MUKWONAGO - (AMOCO) GREENWALD</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
@@ -2105,7 +2152,7 @@
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/LTa4ckcczx5qc8269</t>
+          <t>25406 75TH ST</t>
         </is>
       </c>
       <c r="S32" t="inlineStr"/>
@@ -2113,7 +2160,7 @@
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr">
         <is>
-          <t>ROTE OIL #14 TREVOR (CITGO)</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W32" t="inlineStr"/>
@@ -2128,7 +2175,7 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://goo.gl/maps/jNgJR8hii6jJGZQP7 </t>
+          <t>475 N LAKE AVE</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -2144,7 +2191,7 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>909 GREENWALD CT</t>
+          <t>ROTE OIL #12 MUKWONAGO - (AMOCO) GREENWALD</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
@@ -2152,7 +2199,7 @@
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>https://goo.gl/maps/LTa4ckcczx5qc8269</t>
         </is>
       </c>
       <c r="S33" t="inlineStr"/>
@@ -2160,7 +2207,7 @@
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
-          <t>12617 ANTIOCH RD</t>
+          <t>ROTE OIL #14 TREVOR (CITGO)</t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
@@ -2175,7 +2222,7 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t xml:space="preserve">https://goo.gl/maps/jNgJR8hii6jJGZQP7 </t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -2191,7 +2238,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ejQSLoz2D8EmzKVq6</t>
+          <t>909 GREENWALD CT</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -2199,7 +2246,7 @@
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="S34" t="inlineStr"/>
@@ -2207,7 +2254,7 @@
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/xA9YMzPGc6Vhxi5r8</t>
+          <t>12617 ANTIOCH RD</t>
         </is>
       </c>
       <c r="W34" t="inlineStr"/>
@@ -2222,7 +2269,7 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -2238,7 +2285,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>https://goo.gl/maps/ejQSLoz2D8EmzKVq6</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2246,7 +2293,7 @@
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>ROTE OIL #2 PADDOCK LAKE- 75TH ST</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
@@ -2254,7 +2301,7 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>https://goo.gl/maps/xA9YMzPGc6Vhxi5r8</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -2269,7 +2316,7 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>ROTE OIL #04 GENOA CITY</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -2285,7 +2332,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2293,7 +2340,7 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>25555 75TH ST</t>
+          <t>ROTE OIL #2 PADDOCK LAKE- 75TH ST</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -2301,7 +2348,7 @@
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
@@ -2316,7 +2363,7 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t xml:space="preserve">100 ELIZABETH LANE    </t>
+          <t>ROTE OIL #04 GENOA CITY</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
@@ -2332,7 +2379,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>ROTE OIL  #11 MUKWONAGO - (BP) ARROWHEAD</t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2340,7 +2387,7 @@
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/5UyWWXXbzXMaVnv99</t>
+          <t>25555 75TH ST</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -2348,7 +2395,7 @@
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
         <is>
-          <t>ROTE OIL #13 TREVOR (BP)</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W37" t="inlineStr"/>
@@ -2363,7 +2410,7 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/DitGJzEvTVhJPxkJ8</t>
+          <t xml:space="preserve">100 ELIZABETH LANE    </t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -2379,19 +2426,23 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>122 ARROWHEAD DR</t>
+          <t>ROTE OIL  #11 MUKWONAGO - (BP) ARROWHEAD</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/5UyWWXXbzXMaVnv99</t>
+        </is>
+      </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr">
         <is>
-          <t>12511 ANTIOCH RD</t>
+          <t>ROTE OIL #13 TREVOR (BP)</t>
         </is>
       </c>
       <c r="W38" t="inlineStr"/>
@@ -2406,7 +2457,7 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>https://goo.gl/maps/DitGJzEvTVhJPxkJ8</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -2422,31 +2473,19 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/7XkTFZtDFDgGBctz7</t>
+          <t>122 ARROWHEAD DR</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/iu3xzNwgJ32esP5RA</t>
+          <t>12511 ANTIOCH RD</t>
         </is>
       </c>
       <c r="W39" t="inlineStr"/>
@@ -2461,7 +2500,7 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -2475,28 +2514,35 @@
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/7XkTFZtDFDgGBctz7</t>
+        </is>
+      </c>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>Driver,
-Optima</t>
+          <t>Equip</t>
         </is>
       </c>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/iu3xzNwgJ32esP5RA</t>
+        </is>
+      </c>
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
@@ -2509,7 +2555,7 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>ROTE OIL #05  LAKE GENEVA</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -2522,41 +2568,30 @@
       </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V41" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="W41" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
     </row>
@@ -2568,7 +2603,7 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>300 PELLER RD</t>
+          <t>ROTE OIL #05  LAKE GENEVA</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -2583,15 +2618,19 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr"/>
@@ -2599,18 +2638,17 @@
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>Driver,
-Optima</t>
+          <t>Equip</t>
         </is>
       </c>
       <c r="X42" t="inlineStr"/>
@@ -2624,7 +2662,7 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/6fegzT1PbyY5VkDR6</t>
+          <t>300 PELLER RD</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -2637,21 +2675,38 @@
       </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Jerry D</t>
+        </is>
+      </c>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>4:45 AM OFFICE LEAVE TIME</t>
-        </is>
-      </c>
+      <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr"/>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
     </row>
@@ -2661,7 +2716,11 @@
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/6fegzT1PbyY5VkDR6</t>
+        </is>
+      </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
@@ -2679,7 +2738,7 @@
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>4:45 AM OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="S44" t="inlineStr"/>
@@ -2695,48 +2754,28 @@
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>4:30 AM MEET COLLEGE (SOUTHWEST)</t>
-        </is>
-      </c>
+      <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr">
-        <is>
-          <t>4:30 AM OFFICE MEET</t>
-        </is>
-      </c>
+      <c r="V45" t="inlineStr"/>
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
@@ -2748,18 +2787,17 @@
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Driver,
-Optima</t>
+          <t>Equip</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
@@ -2782,7 +2820,7 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>4:30 AM MEET COLLEGE (SOUTHWEST)</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
@@ -2790,7 +2828,7 @@
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr">
         <is>
-          <t>WILLY STREET COOP, MIDDLETON</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S46" t="inlineStr"/>
@@ -2798,7 +2836,7 @@
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr">
         <is>
-          <t>6:00 AM ST START</t>
+          <t>4:30 AM OFFICE MEET</t>
         </is>
       </c>
       <c r="W46" t="inlineStr"/>
@@ -2810,9 +2848,22 @@
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
@@ -2829,7 +2880,7 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
@@ -2837,7 +2888,7 @@
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr">
         <is>
-          <t>6825 UNIVERSITY AVE</t>
+          <t>WILLY STREET COOP, MIDDLETON</t>
         </is>
       </c>
       <c r="S47" t="inlineStr"/>
@@ -2845,7 +2896,7 @@
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM ST START</t>
         </is>
       </c>
       <c r="W47" t="inlineStr"/>
@@ -2876,7 +2927,7 @@
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
-          <t>BUTERA MARKET #588, ALGONQUIN</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -2884,7 +2935,7 @@
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/in4JiZtePA62</t>
+          <t>6825 UNIVERSITY AVE</t>
         </is>
       </c>
       <c r="S48" t="inlineStr"/>
@@ -2892,7 +2943,7 @@
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr">
         <is>
-          <t>SULLIVAN'S FOODS #295 +ACE, WINNEBAGO</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W48" t="inlineStr"/>
@@ -2915,19 +2966,23 @@
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t>100 SOUTH RANDALL RD</t>
+          <t>BUTERA MARKET #588, ALGONQUIN</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/in4JiZtePA62</t>
+        </is>
+      </c>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr">
         <is>
-          <t>703 N ELIDA STREET</t>
+          <t>SULLIVAN'S FOODS #295 +ACE, WINNEBAGO</t>
         </is>
       </c>
       <c r="W49" t="inlineStr"/>
@@ -2950,31 +3005,19 @@
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/agPr8wkY55me3Sq7A</t>
+          <t>100 SOUTH RANDALL RD</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/XJm8iLALryeWSpAZ6</t>
+          <t>703 N ELIDA STREET</t>
         </is>
       </c>
       <c r="W50" t="inlineStr"/>
@@ -2999,27 +3042,35 @@
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/agPr8wkY55me3Sq7A</t>
+        </is>
+      </c>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>Sante Fe</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr"/>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/XJm8iLALryeWSpAZ6</t>
+        </is>
+      </c>
       <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
@@ -3041,55 +3092,29 @@
       </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Aivy</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Sante Fe</t>
         </is>
       </c>
       <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V52" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="W52" t="inlineStr">
-        <is>
-          <t>@ Store, 
-Supv Groc
-Equip</t>
-        </is>
-      </c>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
     </row>
@@ -3112,24 +3137,28 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr"/>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
@@ -3140,18 +3169,19 @@
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="W53" t="inlineStr">
         <is>
-          <t>Driver,
-Gold Camry</t>
+          <t>@ Store, 
+Supv Groc
+Equip</t>
         </is>
       </c>
       <c r="X53" t="inlineStr"/>
@@ -3176,29 +3206,24 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
@@ -3209,17 +3234,18 @@
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="W54" t="inlineStr">
         <is>
-          <t>Ace Side</t>
+          <t>Driver,
+Gold Camry</t>
         </is>
       </c>
       <c r="X54" t="inlineStr"/>
@@ -3244,28 +3270,29 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver,
+Red Van</t>
         </is>
       </c>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Keilah</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
@@ -3276,17 +3303,17 @@
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="W55" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Ace Side</t>
         </is>
       </c>
       <c r="X55" t="inlineStr"/>
@@ -3307,12 +3334,12 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -3323,12 +3350,12 @@
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Keshawn</t>
+          <t>Keilah</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
@@ -3339,12 +3366,12 @@
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="W56" t="inlineStr">
@@ -3382,12 +3409,12 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -3398,7 +3425,7 @@
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
@@ -3414,12 +3441,12 @@
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="W57" t="inlineStr">
@@ -3445,12 +3472,12 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -3461,7 +3488,7 @@
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
@@ -3478,12 +3505,12 @@
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="W58" t="inlineStr">
@@ -3509,12 +3536,12 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Keilah</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -3525,7 +3552,7 @@
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
@@ -3541,12 +3568,12 @@
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="W59" t="inlineStr">
@@ -3576,12 +3603,12 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Keshawn</t>
+          <t>Keilah</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -3592,7 +3619,7 @@
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
@@ -3609,18 +3636,17 @@
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="W60" t="inlineStr">
         <is>
-          <t>@ Store,
-Ace Side</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X60" t="inlineStr"/>
@@ -3645,7 +3671,7 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -3665,17 +3691,18 @@
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="W61" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Ace Side</t>
         </is>
       </c>
       <c r="X61" t="inlineStr"/>
@@ -3708,12 +3735,12 @@
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="W62" t="inlineStr">
@@ -3755,12 +3782,12 @@
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="W63" t="inlineStr">
@@ -3806,18 +3833,17 @@
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="W64" t="inlineStr">
         <is>
-          <t>@ Store,
-Ace Side</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X64" t="inlineStr"/>
@@ -3854,17 +3880,18 @@
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>Keilah</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="W65" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Ace Side</t>
         </is>
       </c>
       <c r="X65" t="inlineStr"/>
@@ -3901,12 +3928,12 @@
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>Keilah</t>
         </is>
       </c>
       <c r="W66" t="inlineStr">
@@ -3944,18 +3971,17 @@
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="W67" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Ace</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X67" t="inlineStr"/>
@@ -4001,17 +4027,18 @@
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr">
         <is>
-          <t>17)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="W68" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Ace</t>
         </is>
       </c>
       <c r="X68" t="inlineStr"/>
@@ -4052,18 +4079,17 @@
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr">
         <is>
-          <t>18)</t>
+          <t>17)</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="W69" t="inlineStr">
         <is>
-          <t>@ Store,
-Ace Side</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X69" t="inlineStr"/>
@@ -4102,9 +4128,22 @@
       <c r="R70" t="inlineStr"/>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
-      <c r="U70" t="inlineStr"/>
-      <c r="V70" t="inlineStr"/>
-      <c r="W70" t="inlineStr"/>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>18)</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>@ Store,
+Ace Side</t>
+        </is>
+      </c>
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr"/>
     </row>
@@ -4127,7 +4166,11 @@
           <t>Paul</t>
         </is>
       </c>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr">
@@ -4173,11 +4216,7 @@
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr"/>
-      <c r="V72" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="V72" t="inlineStr"/>
       <c r="W72" t="inlineStr"/>
       <c r="X72" t="inlineStr"/>
       <c r="Y72" t="inlineStr"/>
@@ -4210,7 +4249,7 @@
       <c r="U73" t="inlineStr"/>
       <c r="V73" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W73" t="inlineStr"/>
@@ -4245,7 +4284,7 @@
       <c r="U74" t="inlineStr"/>
       <c r="V74" t="inlineStr">
         <is>
-          <t>STANDING PINES AMOCO, SHAWANO</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W74" t="inlineStr"/>
@@ -4280,7 +4319,7 @@
       <c r="U75" t="inlineStr"/>
       <c r="V75" t="inlineStr">
         <is>
-          <t>N209 WI STATE HWY 55</t>
+          <t>STANDING PINES AMOCO, SHAWANO</t>
         </is>
       </c>
       <c r="W75" t="inlineStr"/>
@@ -4315,7 +4354,7 @@
       <c r="U76" t="inlineStr"/>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/QgQ6oqtvxiADbPyn9</t>
+          <t>N209 WI STATE HWY 55</t>
         </is>
       </c>
       <c r="W76" t="inlineStr"/>
@@ -4350,7 +4389,7 @@
       <c r="U77" t="inlineStr"/>
       <c r="V77" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>https://goo.gl/maps/QgQ6oqtvxiADbPyn9</t>
         </is>
       </c>
       <c r="W77" t="inlineStr"/>
@@ -4385,7 +4424,7 @@
       <c r="U78" t="inlineStr"/>
       <c r="V78" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="W78" t="inlineStr"/>
@@ -4420,7 +4459,7 @@
       <c r="U79" t="inlineStr"/>
       <c r="V79" t="inlineStr">
         <is>
-          <t>STANDING CEDARS CONVENIENCE STORE, KESHENA</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W79" t="inlineStr"/>
@@ -4451,7 +4490,7 @@
       <c r="U80" t="inlineStr"/>
       <c r="V80" t="inlineStr">
         <is>
-          <t>N929 WI-47</t>
+          <t>STANDING CEDARS CONVENIENCE STORE, KESHENA</t>
         </is>
       </c>
       <c r="W80" t="inlineStr"/>
@@ -4494,7 +4533,7 @@
       <c r="U81" t="inlineStr"/>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/13L9dUKevBxiLLvW9</t>
+          <t>N929 WI-47</t>
         </is>
       </c>
       <c r="W81" t="inlineStr"/>
@@ -4535,7 +4574,11 @@
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="inlineStr"/>
-      <c r="V82" t="inlineStr"/>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/13L9dUKevBxiLLvW9</t>
+        </is>
+      </c>
       <c r="W82" t="inlineStr"/>
       <c r="X82" t="inlineStr"/>
       <c r="Y82" t="inlineStr"/>
@@ -4573,21 +4616,9 @@
       <c r="R83" t="inlineStr"/>
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr"/>
-      <c r="U83" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V83" t="inlineStr">
-        <is>
-          <t>Jerry S</t>
-        </is>
-      </c>
-      <c r="W83" t="inlineStr">
-        <is>
-          <t>Driver</t>
-        </is>
-      </c>
+      <c r="U83" t="inlineStr"/>
+      <c r="V83" t="inlineStr"/>
+      <c r="W83" t="inlineStr"/>
       <c r="X83" t="inlineStr"/>
       <c r="Y83" t="inlineStr"/>
     </row>
@@ -4614,17 +4645,17 @@
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="W84" t="inlineStr">
         <is>
-          <t>Driver, pick up Trevor</t>
+          <t>Driver</t>
         </is>
       </c>
       <c r="X84" t="inlineStr"/>
@@ -4653,21 +4684,60 @@
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="W85" t="inlineStr">
         <is>
-          <t>meet Michelle 4:45am @ Point Target</t>
+          <t>Driver, pick up Trevor</t>
         </is>
       </c>
       <c r="X85" t="inlineStr"/>
       <c r="Y85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr"/>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr"/>
+      <c r="S86" t="inlineStr"/>
+      <c r="T86" t="inlineStr"/>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>Trevor</t>
+        </is>
+      </c>
+      <c r="W86" t="inlineStr">
+        <is>
+          <t>meet Michelle 4:45am @ Point Target</t>
+        </is>
+      </c>
+      <c r="X86" t="inlineStr"/>
+      <c r="Y86" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/09-22-24 to 09-28-24 Milwaukee Schedule.xlsx
+++ b/09-22-24 to 09-28-24 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y86"/>
+  <dimension ref="A1:Y87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,7 +545,11 @@
           <t xml:space="preserve">Kim </t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Bags 5-7</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
@@ -553,7 +557,11 @@
           <t xml:space="preserve">DJ </t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Bags 3,4</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
@@ -561,7 +569,11 @@
           <t xml:space="preserve">Kim </t>
         </is>
       </c>
-      <c r="O4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Bags 5,6</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -569,7 +581,11 @@
           <t xml:space="preserve">DJ </t>
         </is>
       </c>
-      <c r="S4" t="inlineStr"/>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Bags 2-4</t>
+        </is>
+      </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr">
@@ -577,7 +593,11 @@
           <t xml:space="preserve">Kim </t>
         </is>
       </c>
-      <c r="W4" t="inlineStr"/>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Bags 5-7</t>
+        </is>
+      </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
     </row>
@@ -596,7 +616,11 @@
           <t xml:space="preserve">Katherine </t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Bag 8</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
@@ -604,7 +628,11 @@
           <t xml:space="preserve">Katherine </t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Bag 8</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
@@ -612,7 +640,11 @@
           <t xml:space="preserve">Katherine </t>
         </is>
       </c>
-      <c r="O5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Bag 8</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -620,7 +652,11 @@
           <t xml:space="preserve">Katherine </t>
         </is>
       </c>
-      <c r="S5" t="inlineStr"/>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Bag 8</t>
+        </is>
+      </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr">
@@ -628,7 +664,11 @@
           <t xml:space="preserve">Katherine </t>
         </is>
       </c>
-      <c r="W5" t="inlineStr"/>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Bag 8</t>
+        </is>
+      </c>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
     </row>
@@ -648,10 +688,14 @@
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ian </t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr"/>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Bag 5, SB 11</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
@@ -681,11 +725,7 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kim </t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
@@ -707,48 +747,24 @@
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5:45 AM MEET COLLEGE (SOUTHWEST)</t>
-        </is>
-      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>5:30 AM MEET WATERTOWN PLANK</t>
-        </is>
-      </c>
+      <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>5:00 AM START</t>
-        </is>
-      </c>
+      <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
@@ -758,10 +774,14 @@
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>5:45 AM MEET COLLEGE (SOUTHWEST)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -769,7 +789,7 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -777,7 +797,7 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
@@ -785,7 +805,7 @@
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:30 AM MEET WATERTOWN PLANK</t>
         </is>
       </c>
       <c r="S9" t="inlineStr"/>
@@ -793,7 +813,7 @@
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>5:00 AM START</t>
         </is>
       </c>
       <c r="W9" t="inlineStr"/>
@@ -808,7 +828,7 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -816,7 +836,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>GOOD HARVEST MARKET, PEWAUKEE</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -824,7 +844,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>SENDIK'S, WHITEFISH BAY</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -832,7 +852,7 @@
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S10" t="inlineStr"/>
@@ -840,7 +860,7 @@
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr">
         <is>
-          <t>ALBRECHT'S DELAFIELD MARKET</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W10" t="inlineStr"/>
@@ -855,7 +875,7 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>FESTIVAL #2705, KENOSHA - LIFO</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -863,7 +883,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2205 SILVERNAIL RD</t>
+          <t>GOOD HARVEST MARKET, PEWAUKEE</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -871,7 +891,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>500 E SILVER SPRING DR</t>
+          <t>SENDIK'S, WHITEFISH BAY</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -879,7 +899,7 @@
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
         <is>
-          <t>SENDIK'S, WEST BEND</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S11" t="inlineStr"/>
@@ -887,7 +907,7 @@
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr">
         <is>
-          <t>3255 GOLF RD</t>
+          <t>ALBRECHT'S DELAFIELD MARKET</t>
         </is>
       </c>
       <c r="W11" t="inlineStr"/>
@@ -902,7 +922,7 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3207 80TH ST</t>
+          <t>FESTIVAL #2705, KENOSHA - LIFO</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -910,7 +930,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/dbog9UtxNWp</t>
+          <t>2205 SILVERNAIL RD</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -918,7 +938,7 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/vzSQwdms9GJ2</t>
+          <t>500 E SILVER SPRING DR</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -926,7 +946,7 @@
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
         <is>
-          <t>280 NORTH 18TH AVE</t>
+          <t>SENDIK'S, WEST BEND</t>
         </is>
       </c>
       <c r="S12" t="inlineStr"/>
@@ -934,7 +954,7 @@
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/UZh6uE9Zs2H2</t>
+          <t>3255 GOLF RD</t>
         </is>
       </c>
       <c r="W12" t="inlineStr"/>
@@ -949,19 +969,23 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/zvVRztkrfs42</t>
+          <t>3207 80TH ST</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/dbog9UtxNWp</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>FEW RESETS-REMAPPED</t>
+          <t>https://goo.gl/maps/vzSQwdms9GJ2</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
@@ -969,13 +993,17 @@
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/yycubiparBs</t>
+          <t>280 NORTH 18TH AVE</t>
         </is>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/UZh6uE9Zs2H2</t>
+        </is>
+      </c>
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr"/>
@@ -986,48 +1014,36 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/zvVRztkrfs42</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>FEW RESETS-REMAPPED</t>
+        </is>
+      </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/yycubiparBs</t>
+        </is>
+      </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>Sante Fe available, Equip</t>
-        </is>
-      </c>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
     </row>
@@ -1036,81 +1052,47 @@
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>@ Store,
-Sante Fe,
-Equip</t>
-        </is>
-      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>Sante Fe available, Equip</t>
-        </is>
-      </c>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>Trainer</t>
+          <t>Sante Fe available, Equip</t>
         </is>
       </c>
       <c r="X15" t="inlineStr"/>
@@ -1123,77 +1105,81 @@
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Driver,
-White Camry, Trainer</t>
+          <t>@ Store,
+Sante Fe,
+Equip</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Trainer</t>
+          <t>Sante Fe available, Equip</t>
         </is>
       </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>Curt</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
     </row>
@@ -1204,65 +1190,75 @@
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
           <t>Driver,
-Altima</t>
+White Camry,
+Trainer</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Curt</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>@ Store,
+Trainer</t>
+        </is>
+      </c>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Curt</t>
         </is>
       </c>
       <c r="W17" t="inlineStr"/>
@@ -1276,7 +1272,7 @@
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1288,52 +1284,48 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Aivy</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Curt</t>
         </is>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="W18" t="inlineStr"/>
@@ -1347,7 +1339,7 @@
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1359,12 +1351,12 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1375,41 +1367,36 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="W19" t="inlineStr"/>
@@ -1423,7 +1410,7 @@
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1435,12 +1422,12 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1451,49 +1438,44 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Justin Learned</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
           <t>Driver,
-Gold Camry</t>
+Red Van</t>
         </is>
       </c>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>4th Day,
-work w/ Carlie</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
     </row>
@@ -1504,7 +1486,7 @@
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1521,12 +1503,12 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1537,44 +1519,49 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>2nd Day,
-work w/ Carlie</t>
-        </is>
-      </c>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>Driver,
+Gold Camry</t>
+        </is>
+      </c>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr"/>
+          <t>Lexi</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>4th Day,
+work w/ Carlie</t>
+        </is>
+      </c>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
     </row>
@@ -1585,7 +1572,7 @@
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1602,12 +1589,12 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1618,41 +1605,41 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr"/>
+          <t>Lexi</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>2nd Day,
+work w/ Carlie</t>
+        </is>
+      </c>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>3rd Day,
-work w/ Carlie</t>
-        </is>
-      </c>
+          <t>Justin Learned</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Robyn</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="W22" t="inlineStr"/>
@@ -1666,52 +1653,73 @@
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
           <t>9)</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr"/>
+          <t>Lexi</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>3rd Day,
+work w/ Carlie</t>
+        </is>
+      </c>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Robyn</t>
         </is>
       </c>
       <c r="W23" t="inlineStr"/>
@@ -1725,7 +1733,7 @@
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1739,38 +1747,41 @@
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Stephanie</t>
+        </is>
+      </c>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Robyn</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Stephanie</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr">
-        <is>
-          <t>Until 10:00,
-Trainer</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
     </row>
@@ -1781,7 +1792,7 @@
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1792,11 +1803,7 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>5:30 AM START</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
@@ -1805,30 +1812,30 @@
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Robyn</t>
         </is>
       </c>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Aivy</t>
+          <t>Stephanie</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>@ Store,
-work w/ Stephanie</t>
+          <t>Until 10:00,
+Trainer</t>
         </is>
       </c>
       <c r="X25" t="inlineStr"/>
@@ -1841,7 +1848,7 @@
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1849,41 +1856,50 @@
           <t>Stephanie</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
+          <t>5:30 AM START</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>5:30 AM START</t>
-        </is>
-      </c>
+      <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+work w/ Stephanie</t>
         </is>
       </c>
       <c r="X26" t="inlineStr"/>
@@ -1901,7 +1917,7 @@
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>ROTE OIL #6 HUBERTUS</t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
@@ -1909,7 +1925,7 @@
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>5:30 AM START</t>
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
@@ -1920,12 +1936,12 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
@@ -1948,7 +1964,7 @@
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>1306 HWY 175</t>
+          <t>ROTE OIL #6 HUBERTUS</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
@@ -1956,22 +1972,30 @@
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
-          <t>ROTE OIL #10 MUKWONAGO - ROCHESTER</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>5:00 AM OFFICE MEET</t>
-        </is>
-      </c>
+      <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
     </row>
@@ -1995,7 +2019,7 @@
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/SZRuQ4FHA1cX2ZmC8</t>
+          <t>1306 HWY 175</t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
@@ -2003,7 +2027,7 @@
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
-          <t>1060 N ROCHESTER ST</t>
+          <t>ROTE OIL #10 MUKWONAGO - ROCHESTER</t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
@@ -2011,7 +2035,7 @@
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:00 AM OFFICE MEET</t>
         </is>
       </c>
       <c r="S29" t="inlineStr"/>
@@ -2042,7 +2066,7 @@
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>https://goo.gl/maps/SZRuQ4FHA1cX2ZmC8</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
@@ -2050,7 +2074,7 @@
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/dmvR5bTHLs1Cbjcr5</t>
+          <t>1060 N ROCHESTER ST</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
@@ -2058,17 +2082,13 @@
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>5:00 AM OFFICE MEET</t>
-        </is>
-      </c>
+      <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
@@ -2089,7 +2109,7 @@
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
@@ -2097,7 +2117,7 @@
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>https://goo.gl/maps/dmvR5bTHLs1Cbjcr5</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
@@ -2105,7 +2125,7 @@
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
-          <t>ROTE OIL #1 PADDOCK LAKE- BRASS BALL</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S31" t="inlineStr"/>
@@ -2113,7 +2133,7 @@
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:00 AM OFFICE MEET</t>
         </is>
       </c>
       <c r="W31" t="inlineStr"/>
@@ -2136,7 +2156,7 @@
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>ROTE OIL #7 MILWAUKEE</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
@@ -2144,7 +2164,7 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
@@ -2152,7 +2172,7 @@
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
         <is>
-          <t>25406 75TH ST</t>
+          <t>ROTE OIL #1 PADDOCK LAKE- BRASS BALL</t>
         </is>
       </c>
       <c r="S32" t="inlineStr"/>
@@ -2160,7 +2180,7 @@
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W32" t="inlineStr"/>
@@ -2183,7 +2203,7 @@
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>5931 N 91ST ST</t>
+          <t>ROTE OIL #7 MILWAUKEE</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
@@ -2191,7 +2211,7 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>ROTE OIL #12 MUKWONAGO - (AMOCO) GREENWALD</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
@@ -2199,7 +2219,7 @@
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/LTa4ckcczx5qc8269</t>
+          <t>25406 75TH ST</t>
         </is>
       </c>
       <c r="S33" t="inlineStr"/>
@@ -2207,7 +2227,7 @@
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
-          <t>ROTE OIL #14 TREVOR (CITGO)</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
@@ -2230,7 +2250,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/cw58s7atAhTAGHNd7</t>
+          <t>5931 N 91ST ST</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -2238,7 +2258,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>909 GREENWALD CT</t>
+          <t>ROTE OIL #12 MUKWONAGO - (AMOCO) GREENWALD</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -2246,7 +2266,7 @@
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>https://goo.gl/maps/LTa4ckcczx5qc8269</t>
         </is>
       </c>
       <c r="S34" t="inlineStr"/>
@@ -2254,7 +2274,7 @@
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr">
         <is>
-          <t>12617 ANTIOCH RD</t>
+          <t>ROTE OIL #14 TREVOR (CITGO)</t>
         </is>
       </c>
       <c r="W34" t="inlineStr"/>
@@ -2277,7 +2297,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>https://goo.gl/maps/cw58s7atAhTAGHNd7</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2285,7 +2305,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ejQSLoz2D8EmzKVq6</t>
+          <t>909 GREENWALD CT</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2293,7 +2313,7 @@
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
@@ -2301,7 +2321,7 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/xA9YMzPGc6Vhxi5r8</t>
+          <t>12617 ANTIOCH RD</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -2324,7 +2344,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -2332,7 +2352,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>https://goo.gl/maps/ejQSLoz2D8EmzKVq6</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2340,7 +2360,7 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>ROTE OIL #2 PADDOCK LAKE- 75TH ST</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -2348,7 +2368,7 @@
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>https://goo.gl/maps/xA9YMzPGc6Vhxi5r8</t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
@@ -2371,7 +2391,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>ROTE OIL #8 ELM GROVE</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -2379,7 +2399,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2387,7 +2407,7 @@
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>25555 75TH ST</t>
+          <t>ROTE OIL #2 PADDOCK LAKE- 75TH ST</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -2395,7 +2415,7 @@
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="W37" t="inlineStr"/>
@@ -2418,7 +2438,7 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>13395 WATERTOWN PLANK RD</t>
+          <t>ROTE OIL #8 ELM GROVE</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -2426,7 +2446,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>ROTE OIL  #11 MUKWONAGO - (BP) ARROWHEAD</t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2434,7 +2454,7 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/5UyWWXXbzXMaVnv99</t>
+          <t>25555 75TH ST</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -2442,7 +2462,7 @@
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr">
         <is>
-          <t>ROTE OIL #13 TREVOR (BP)</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W38" t="inlineStr"/>
@@ -2465,7 +2485,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/5zXAKpcRHDmA17UK9</t>
+          <t>13395 WATERTOWN PLANK RD</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
@@ -2473,19 +2493,23 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>122 ARROWHEAD DR</t>
+          <t>ROTE OIL  #11 MUKWONAGO - (BP) ARROWHEAD</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/5UyWWXXbzXMaVnv99</t>
+        </is>
+      </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr">
         <is>
-          <t>12511 ANTIOCH RD</t>
+          <t>ROTE OIL #13 TREVOR (BP)</t>
         </is>
       </c>
       <c r="W39" t="inlineStr"/>
@@ -2508,7 +2532,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>https://goo.gl/maps/5zXAKpcRHDmA17UK9</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
@@ -2516,31 +2540,19 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/7XkTFZtDFDgGBctz7</t>
+          <t>122 ARROWHEAD DR</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/iu3xzNwgJ32esP5RA</t>
+          <t>12511 ANTIOCH RD</t>
         </is>
       </c>
       <c r="W40" t="inlineStr"/>
@@ -2563,34 +2575,41 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/7XkTFZtDFDgGBctz7</t>
+        </is>
+      </c>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>Driver,
-Optima</t>
+          <t>Equip</t>
         </is>
       </c>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/iu3xzNwgJ32esP5RA</t>
+        </is>
+      </c>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
@@ -2611,46 +2630,35 @@
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>ROTE OIL #09 GREENFIELD</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V42" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="W42" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
     </row>
@@ -2670,22 +2678,26 @@
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>12345 W LAYTON AVE</t>
+          <t>ROTE OIL #09 GREENFIELD</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr"/>
@@ -2693,18 +2705,17 @@
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>Driver,
-Optima</t>
+          <t>Equip</t>
         </is>
       </c>
       <c r="X43" t="inlineStr"/>
@@ -2726,26 +2737,43 @@
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/TSgMUriHbJPX9hGE7</t>
+          <t>12345 W LAYTON AVE</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Jerry D</t>
+        </is>
+      </c>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>4:45 AM OFFICE LEAVE TIME</t>
-        </is>
-      </c>
+      <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr"/>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
     </row>
@@ -2759,7 +2787,11 @@
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/TSgMUriHbJPX9hGE7</t>
+        </is>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
@@ -2769,7 +2801,7 @@
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>4:45 AM OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="S45" t="inlineStr"/>
@@ -2801,44 +2833,24 @@
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>4:30 AM MEET COLLEGE (SOUTHWEST)</t>
-        </is>
-      </c>
+      <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr">
-        <is>
-          <t>4:30 AM OFFICE MEET</t>
-        </is>
-      </c>
+      <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
@@ -2855,32 +2867,36 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
           <t>Driver,
-Optima</t>
+Altima</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>4:30 AM MEET COLLEGE (SOUTHWEST)</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
@@ -2888,7 +2904,7 @@
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr">
         <is>
-          <t>WILLY STREET COOP, MIDDLETON</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S47" t="inlineStr"/>
@@ -2896,7 +2912,7 @@
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr">
         <is>
-          <t>6:00 AM ST START</t>
+          <t>4:30 AM OFFICE MEET</t>
         </is>
       </c>
       <c r="W47" t="inlineStr"/>
@@ -2914,12 +2930,12 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
@@ -2927,7 +2943,7 @@
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -2935,7 +2951,7 @@
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr">
         <is>
-          <t>6825 UNIVERSITY AVE</t>
+          <t>WILLY STREET COOP, MIDDLETON</t>
         </is>
       </c>
       <c r="S48" t="inlineStr"/>
@@ -2943,7 +2959,7 @@
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM ST START</t>
         </is>
       </c>
       <c r="W48" t="inlineStr"/>
@@ -2959,14 +2975,22 @@
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Jerry D</t>
+        </is>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t>BUTERA MARKET #588, ALGONQUIN</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
@@ -2974,7 +2998,7 @@
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/in4JiZtePA62</t>
+          <t>6825 UNIVERSITY AVE</t>
         </is>
       </c>
       <c r="S49" t="inlineStr"/>
@@ -2982,7 +3006,7 @@
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr">
         <is>
-          <t>SULLIVAN'S FOODS #295 +ACE, WINNEBAGO</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W49" t="inlineStr"/>
@@ -3005,19 +3029,23 @@
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>100 SOUTH RANDALL RD</t>
+          <t>BUTERA MARKET #588, ALGONQUIN</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/in4JiZtePA62</t>
+        </is>
+      </c>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr">
         <is>
-          <t>703 N ELIDA STREET</t>
+          <t>SULLIVAN'S FOODS #295 +ACE, WINNEBAGO</t>
         </is>
       </c>
       <c r="W50" t="inlineStr"/>
@@ -3034,41 +3062,25 @@
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/agPr8wkY55me3Sq7A</t>
+          <t>100 SOUTH RANDALL RD</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/XJm8iLALryeWSpAZ6</t>
+          <t>703 N ELIDA STREET</t>
         </is>
       </c>
       <c r="W51" t="inlineStr"/>
@@ -3087,33 +3099,41 @@
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/agPr8wkY55me3Sq7A</t>
+        </is>
+      </c>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>Sante Fe</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr"/>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/XJm8iLALryeWSpAZ6</t>
+        </is>
+      </c>
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
@@ -3130,60 +3150,34 @@
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
-          <t>CONCORD GENERAL STORE, OCONOMOWOC</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Aivy</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Sante Fe</t>
         </is>
       </c>
       <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V53" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="W53" t="inlineStr">
-        <is>
-          <t>@ Store, 
-Supv Groc
-Equip</t>
-        </is>
-      </c>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
     </row>
@@ -3199,31 +3193,35 @@
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
-          <t>N6485 COUNTY RD F</t>
+          <t>CONCORD GENERAL STORE, OCONOMOWOC</t>
         </is>
       </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr"/>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
@@ -3234,18 +3232,19 @@
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="W54" t="inlineStr">
         <is>
-          <t>Driver,
-Gold Camry</t>
+          <t>@ Store, 
+Supv Groc
+Equip</t>
         </is>
       </c>
       <c r="X54" t="inlineStr"/>
@@ -3263,36 +3262,31 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/X4xEoL3zCRA2</t>
+          <t>N6485 COUNTY RD F</t>
         </is>
       </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
@@ -3303,17 +3297,18 @@
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="W55" t="inlineStr">
         <is>
-          <t>Ace Side</t>
+          <t>Driver,
+Gold Camry</t>
         </is>
       </c>
       <c r="X55" t="inlineStr"/>
@@ -3329,33 +3324,38 @@
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/X4xEoL3zCRA2</t>
+        </is>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver,
+Red Van</t>
         </is>
       </c>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Keilah</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
@@ -3366,17 +3366,17 @@
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="W56" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Ace Side</t>
         </is>
       </c>
       <c r="X56" t="inlineStr"/>
@@ -3391,30 +3391,18 @@
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>Gold Camry available, Equip</t>
-        </is>
-      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -3425,12 +3413,12 @@
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Keilah</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
@@ -3441,12 +3429,12 @@
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="W57" t="inlineStr">
@@ -3466,18 +3454,30 @@
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Gold Camry available, Equip</t>
+        </is>
+      </c>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -3488,29 +3488,28 @@
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="W58" t="inlineStr">
@@ -3536,12 +3535,12 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -3552,28 +3551,29 @@
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="W59" t="inlineStr">
@@ -3594,21 +3594,17 @@
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>6:15 AM OFFICE MEET</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Keilah</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -3619,29 +3615,28 @@
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Seth</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>@ Store,
-work w/ Michael</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="W60" t="inlineStr">
@@ -3664,19 +3659,19 @@
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>6:15 AM OFFICE MEET</t>
         </is>
       </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>Keilah</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -3685,24 +3680,36 @@
         </is>
       </c>
       <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>Seth</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>@ Store,
+work w/ Michael</t>
+        </is>
+      </c>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="W61" t="inlineStr">
         <is>
-          <t>@ Store,
-Ace Side</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X61" t="inlineStr"/>
@@ -3720,14 +3727,26 @@
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
-      <c r="O62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>Makeda</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr"/>
@@ -3735,17 +3754,18 @@
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="W62" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Ace Side</t>
         </is>
       </c>
       <c r="X62" t="inlineStr"/>
@@ -3763,7 +3783,7 @@
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>MILLGATE GENERAL STORE, BURLINGTON</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K63" t="inlineStr"/>
@@ -3773,21 +3793,17 @@
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="R63" t="inlineStr"/>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="W63" t="inlineStr">
@@ -3810,35 +3826,31 @@
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t>151 MILLGATE DR</t>
+          <t>MILLGATE GENERAL STORE, BURLINGTON</t>
         </is>
       </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>5:00 AM OFFICE LEAVE TIME</t>
-        </is>
-      </c>
+      <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="W64" t="inlineStr">
@@ -3861,7 +3873,7 @@
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/JmyTfGd26bD2FKyR8</t>
+          <t>151 MILLGATE DR</t>
         </is>
       </c>
       <c r="K65" t="inlineStr"/>
@@ -3869,29 +3881,32 @@
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>5:00 AM OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="W65" t="inlineStr">
         <is>
-          <t>@ Store,
-Ace Side</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X65" t="inlineStr"/>
@@ -3909,7 +3924,7 @@
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>EXPORT NEEDS TO BE LEFT ON COMPUTER AT STORE</t>
+          <t>https://goo.gl/maps/JmyTfGd26bD2FKyR8</t>
         </is>
       </c>
       <c r="K66" t="inlineStr"/>
@@ -3917,7 +3932,7 @@
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="O66" t="inlineStr"/>
@@ -3928,17 +3943,18 @@
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>Keilah</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="W66" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Ace Side</t>
         </is>
       </c>
       <c r="X66" t="inlineStr"/>
@@ -3954,13 +3970,17 @@
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>EXPORT NEEDS TO BE LEFT ON COMPUTER AT STORE</t>
+        </is>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
-          <t>CONDON OIL #275, COLOMA</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O67" t="inlineStr"/>
@@ -3971,12 +3991,12 @@
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>Keilah</t>
         </is>
       </c>
       <c r="W67" t="inlineStr">
@@ -3996,27 +4016,14 @@
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe, Equip</t>
-        </is>
-      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr">
         <is>
-          <t>215 W FOLLETT</t>
+          <t>CONDON OIL #275, COLOMA</t>
         </is>
       </c>
       <c r="O68" t="inlineStr"/>
@@ -4027,18 +4034,17 @@
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="W68" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Ace</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X68" t="inlineStr"/>
@@ -4055,20 +4061,25 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Driver,
+Sante Fe, Equip</t>
+        </is>
+      </c>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/HSrKs8rHk8J2</t>
+          <t>215 W FOLLETT</t>
         </is>
       </c>
       <c r="O69" t="inlineStr"/>
@@ -4079,17 +4090,18 @@
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr">
         <is>
-          <t>17)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="W69" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Ace</t>
         </is>
       </c>
       <c r="X69" t="inlineStr"/>
@@ -4106,12 +4118,12 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="K70" t="inlineStr"/>
@@ -4119,7 +4131,7 @@
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW  </t>
+          <t>https://goo.gl/maps/HSrKs8rHk8J2</t>
         </is>
       </c>
       <c r="O70" t="inlineStr"/>
@@ -4130,18 +4142,17 @@
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr">
         <is>
-          <t>18)</t>
+          <t>17)</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="W70" t="inlineStr">
         <is>
-          <t>@ Store,
-Ace Side</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X70" t="inlineStr"/>
@@ -4158,24 +4169,20 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Justin Learned</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t xml:space="preserve">TO FOLLOW  </t>
         </is>
       </c>
       <c r="O71" t="inlineStr"/>
@@ -4184,9 +4191,22 @@
       <c r="R71" t="inlineStr"/>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
-      <c r="U71" t="inlineStr"/>
-      <c r="V71" t="inlineStr"/>
-      <c r="W71" t="inlineStr"/>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>18)</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>@ Store,
+Ace Side</t>
+        </is>
+      </c>
       <c r="X71" t="inlineStr"/>
       <c r="Y71" t="inlineStr"/>
     </row>
@@ -4199,14 +4219,26 @@
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr">
         <is>
-          <t>CONDON OIL #240, MONTELLO</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O72" t="inlineStr"/>
@@ -4237,7 +4269,7 @@
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr">
         <is>
-          <t>128 CHURCH ST</t>
+          <t>CONDON OIL #240, MONTELLO</t>
         </is>
       </c>
       <c r="O73" t="inlineStr"/>
@@ -4247,11 +4279,7 @@
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr"/>
-      <c r="V73" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="V73" t="inlineStr"/>
       <c r="W73" t="inlineStr"/>
       <c r="X73" t="inlineStr"/>
       <c r="Y73" t="inlineStr"/>
@@ -4272,7 +4300,7 @@
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/2gfTTs4ptyC2</t>
+          <t>128 CHURCH ST</t>
         </is>
       </c>
       <c r="O74" t="inlineStr"/>
@@ -4284,7 +4312,7 @@
       <c r="U74" t="inlineStr"/>
       <c r="V74" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W74" t="inlineStr"/>
@@ -4307,7 +4335,7 @@
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW  </t>
+          <t>https://goo.gl/maps/2gfTTs4ptyC2</t>
         </is>
       </c>
       <c r="O75" t="inlineStr"/>
@@ -4319,7 +4347,7 @@
       <c r="U75" t="inlineStr"/>
       <c r="V75" t="inlineStr">
         <is>
-          <t>STANDING PINES AMOCO, SHAWANO</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W75" t="inlineStr"/>
@@ -4342,7 +4370,7 @@
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t xml:space="preserve">TO FOLLOW  </t>
         </is>
       </c>
       <c r="O76" t="inlineStr"/>
@@ -4354,7 +4382,7 @@
       <c r="U76" t="inlineStr"/>
       <c r="V76" t="inlineStr">
         <is>
-          <t>N209 WI STATE HWY 55</t>
+          <t>STANDING PINES AMOCO, SHAWANO</t>
         </is>
       </c>
       <c r="W76" t="inlineStr"/>
@@ -4377,7 +4405,7 @@
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr">
         <is>
-          <t>CONDON OIL #265, PRINCETON</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O77" t="inlineStr"/>
@@ -4389,7 +4417,7 @@
       <c r="U77" t="inlineStr"/>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/QgQ6oqtvxiADbPyn9</t>
+          <t>N209 WI STATE HWY 55</t>
         </is>
       </c>
       <c r="W77" t="inlineStr"/>
@@ -4412,7 +4440,7 @@
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr">
         <is>
-          <t>933 W MAIN ST</t>
+          <t>CONDON OIL #265, PRINCETON</t>
         </is>
       </c>
       <c r="O78" t="inlineStr"/>
@@ -4424,7 +4452,7 @@
       <c r="U78" t="inlineStr"/>
       <c r="V78" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>https://goo.gl/maps/QgQ6oqtvxiADbPyn9</t>
         </is>
       </c>
       <c r="W78" t="inlineStr"/>
@@ -4447,7 +4475,7 @@
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/jHf29Lb5Uuo</t>
+          <t>933 W MAIN ST</t>
         </is>
       </c>
       <c r="O79" t="inlineStr"/>
@@ -4459,7 +4487,7 @@
       <c r="U79" t="inlineStr"/>
       <c r="V79" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="W79" t="inlineStr"/>
@@ -4480,7 +4508,11 @@
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr"/>
-      <c r="N80" t="inlineStr"/>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/jHf29Lb5Uuo</t>
+        </is>
+      </c>
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="inlineStr"/>
       <c r="Q80" t="inlineStr"/>
@@ -4490,7 +4522,7 @@
       <c r="U80" t="inlineStr"/>
       <c r="V80" t="inlineStr">
         <is>
-          <t>STANDING CEDARS CONVENIENCE STORE, KESHENA</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W80" t="inlineStr"/>
@@ -4510,21 +4542,9 @@
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>Michelle</t>
-        </is>
-      </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
       <c r="P81" t="inlineStr"/>
       <c r="Q81" t="inlineStr"/>
       <c r="R81" t="inlineStr"/>
@@ -4533,7 +4553,7 @@
       <c r="U81" t="inlineStr"/>
       <c r="V81" t="inlineStr">
         <is>
-          <t>N929 WI-47</t>
+          <t>STANDING CEDARS CONVENIENCE STORE, KESHENA</t>
         </is>
       </c>
       <c r="W81" t="inlineStr"/>
@@ -4555,17 +4575,17 @@
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Gold Camry</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="P82" t="inlineStr"/>
@@ -4576,7 +4596,7 @@
       <c r="U82" t="inlineStr"/>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/13L9dUKevBxiLLvW9</t>
+          <t>N929 WI-47</t>
         </is>
       </c>
       <c r="W82" t="inlineStr"/>
@@ -4598,17 +4618,17 @@
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>Jacqui</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Gold Camry</t>
         </is>
       </c>
       <c r="P83" t="inlineStr"/>
@@ -4617,7 +4637,11 @@
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr"/>
-      <c r="V83" t="inlineStr"/>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/13L9dUKevBxiLLvW9</t>
+        </is>
+      </c>
       <c r="W83" t="inlineStr"/>
       <c r="X83" t="inlineStr"/>
       <c r="Y83" t="inlineStr"/>
@@ -4635,29 +4659,29 @@
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="inlineStr"/>
-      <c r="O84" t="inlineStr"/>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>Jacqui</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P84" t="inlineStr"/>
       <c r="Q84" t="inlineStr"/>
       <c r="R84" t="inlineStr"/>
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr"/>
-      <c r="U84" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V84" t="inlineStr">
-        <is>
-          <t>Jerry S</t>
-        </is>
-      </c>
-      <c r="W84" t="inlineStr">
-        <is>
-          <t>Driver</t>
-        </is>
-      </c>
+      <c r="U84" t="inlineStr"/>
+      <c r="V84" t="inlineStr"/>
+      <c r="W84" t="inlineStr"/>
       <c r="X84" t="inlineStr"/>
       <c r="Y84" t="inlineStr"/>
     </row>
@@ -4684,17 +4708,17 @@
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="W85" t="inlineStr">
         <is>
-          <t>Driver, pick up Trevor</t>
+          <t>Driver</t>
         </is>
       </c>
       <c r="X85" t="inlineStr"/>
@@ -4723,21 +4747,60 @@
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="W86" t="inlineStr">
         <is>
-          <t>meet Michelle 4:45am @ Point Target</t>
+          <t>Driver, pick up Trevor</t>
         </is>
       </c>
       <c r="X86" t="inlineStr"/>
       <c r="Y86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr"/>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="inlineStr"/>
+      <c r="S87" t="inlineStr"/>
+      <c r="T87" t="inlineStr"/>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>Trevor</t>
+        </is>
+      </c>
+      <c r="W87" t="inlineStr">
+        <is>
+          <t>meet Michelle 4:45am @ Point Target</t>
+        </is>
+      </c>
+      <c r="X87" t="inlineStr"/>
+      <c r="Y87" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
